--- a/santa_clara_county/FOIA_data_request_all_cause_covid_OFFICIAL_FOIA_RESPONSE.xlsx
+++ b/santa_clara_county/FOIA_data_request_all_cause_covid_OFFICIAL_FOIA_RESPONSE.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA234928-122E-4C46-AC2D-9F7252828BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9212907-FB07-4F64-A62B-033F91FA276E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12" yWindow="366" windowWidth="23028" windowHeight="12078" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all-cause deaths" sheetId="1" r:id="rId1"/>
     <sheet name="covid deaths" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -504,18 +517,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -610,7 +623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -705,7 +718,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -800,7 +813,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -895,7 +908,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -990,7 +1003,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1180,7 +1193,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1370,7 +1383,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1465,7 +1478,7 @@
         <v>2587</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1560,27 +1573,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13">
+        <f>SUM(F3:F12)</f>
+        <v>10096</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K3:K12)</f>
+        <v>10039</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P3:P12)</f>
+        <v>11327</v>
+      </c>
+      <c r="U13">
+        <f>SUM(U3:U12)</f>
+        <v>11193</v>
+      </c>
+      <c r="Z13">
+        <f>SUM(Z3:Z12)</f>
+        <v>11363</v>
+      </c>
+      <c r="AE13">
+        <f>SUM(AE3:AE12)</f>
+        <v>10699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1595,18 +1632,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1671,7 +1708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -1736,7 +1773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1866,7 +1903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1931,7 +1968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +2033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -2061,7 +2098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -2126,7 +2163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2191,7 +2228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -2256,7 +2293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2321,32 +2358,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13">
+        <f>SUM(F5:F12)</f>
+        <v>865</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K5:K12)</f>
+        <v>1094</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P5:P12)</f>
+        <v>651</v>
+      </c>
+      <c r="U13">
+        <f>SUM(U5:U12)</f>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
